--- a/QRPH/CCG/StructureDefinition-ccg-patient-plans.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-patient-plans.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -605,7 +605,7 @@
     <t>The type of PlanDefinition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/plan-definition-type</t>
+    <t>http://hl7.org/fhir/ValueSet/plan-definition-type|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.status</t>
@@ -661,7 +661,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group|4.0.1)</t>
   </si>
   <si>
     <t>Type of individual the plan definition is focused on</t>
@@ -676,7 +676,7 @@
     <t>The possible types of subjects for a plan definition (E.g. Patient, Practitioner, Organization, Location, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subject-type</t>
+    <t>http://hl7.org/fhir/ValueSet/subject-type|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject</t>
@@ -804,7 +804,7 @@
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|4.0.1</t>
   </si>
   <si>
     <t>Definition.jurisdiction</t>
@@ -933,7 +933,7 @@
     <t>High-level categorization of the definition, used for searching, sorting, and filtering.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/definition-topic</t>
+    <t>http://hl7.org/fhir/ValueSet/definition-topic|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject[x]</t>
@@ -1003,7 +1003,7 @@
     <t>PlanDefinition.library</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Library)
+    <t xml:space="preserve">canonical(Library|4.0.1)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>Example codes for grouping goals for filtering or presentation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-category</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-category|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.description</t>
@@ -1100,7 +1100,7 @@
     <t>Describes goals that can be achieved.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.priority</t>
@@ -1115,7 +1115,7 @@
     <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-priority|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.start</t>
@@ -1130,7 +1130,7 @@
     <t>Identifies the types of events that might trigger the start of a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-start-event|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.addresses</t>
@@ -1145,7 +1145,7 @@
     <t>Identifies problems, conditions, issues, or concerns that goals may address.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.documentation</t>
@@ -1187,7 +1187,7 @@
     <t>Identifies types of parameters that can be tracked to determine goal achievement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.target.detail[x]</t>
@@ -1552,7 +1552,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.action.type</t>
@@ -1567,7 +1567,7 @@
     <t>The type of action to be performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-type</t>
+    <t>http://hl7.org/fhir/ValueSet/action-type|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.action.groupingBehavior</t>
@@ -1648,7 +1648,7 @@
     <t>PlanDefinition.action.definition[x]</t>
   </si>
   <si>
-    <t>canonical(ActivityDefinition|PlanDefinition|Questionnaire)
+    <t>canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1|Questionnaire|4.0.1)
 uri</t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
     <t>PlanDefinition.action.transform</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureMap)
+    <t xml:space="preserve">canonical(StructureMap|4.0.1)
 </t>
   </si>
   <si>
